--- a/app/assets/files/NAPI 2013 Recommendation Form - Final.xlsx
+++ b/app/assets/files/NAPI 2013 Recommendation Form - Final.xlsx
@@ -16,7 +16,7 @@
     <t>Recommendation Form for NAIST Program for Interns October 2013</t>
   </si>
   <si>
-    <t>Reminder: Kindly email the completed recommendation form in PDF format directly to internship.naist@gmail.com on or before July 19, 2013 11:59 PM (Phillipine Standard Time )</t>
+    <t>Reminder: Kindly email the completed recommendation form in PDF format directly to internship.naist@gmail.com on or before July 19, 2013 11:59 PM (Phillipine Standard Time ). Please follow the file naming format: [Surname]-Recommendation_NAPI2013.pdf Ex: DelaCruz-Recommendation_NAPI2013.pdf</t>
   </si>
   <si>
     <t>Name of Student Applicant</t>
@@ -143,43 +143,25 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -278,43 +260,52 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -395,25 +386,34 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -502,6 +502,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -524,13 +544,108 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -556,6 +671,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -582,38 +708,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -623,82 +726,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -730,53 +760,40 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -793,25 +810,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -849,52 +849,52 @@
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="4"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="5" applyFill="1">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="5">
+      <alignment vertical="bottom" horizontal="left"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="6">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="7" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="7" applyFill="1">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="8">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="8" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="9">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="10">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="11">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="12">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="13"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="15" applyFill="1">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="16"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="17"/>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="18">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="8" applyFont="1" fontId="9">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="9" applyFont="1" fontId="10">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="19">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="20" applyFill="1">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="21"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="22">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="23" applyFill="1">
       <alignment vertical="center" horizontal="left"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="11">
-      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="11" applyFont="1" fontId="12" applyFill="1">
-      <alignment vertical="bottom" horizontal="left"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="13">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="14">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="15">
-      <alignment vertical="bottom" horizontal="left"/>
-    </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="14" applyFont="1" fontId="16"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="17"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="18"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="19"/>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="20">
-      <alignment vertical="bottom" horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="21">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="22"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="23">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="24"/>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="25">
@@ -904,34 +904,34 @@
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="27">
+      <alignment vertical="center" horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="28">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="28">
-      <alignment vertical="center" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="29">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="29" applyFill="1">
+      <alignment vertical="bottom" horizontal="left" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="30">
-      <alignment vertical="bottom" horizontal="left"/>
+      <alignment vertical="bottom" horizontal="center"/>
     </xf>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="31"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="32"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="6" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="33" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="26" applyFont="1" fontId="33" applyFill="1">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="34">
-      <alignment vertical="bottom" horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="35"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="36" applyFill="1">
-      <alignment vertical="center" horizontal="left"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="34"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="35">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="36">
+      <alignment vertical="center" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="37">
       <alignment vertical="center" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="38">
-      <alignment vertical="center" horizontal="general" wrapText="1"/>
+      <alignment vertical="bottom" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,41 +959,41 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
-      <c s="27" r="B1"/>
-      <c s="27" r="C1"/>
-      <c s="27" r="D1"/>
-      <c s="27" r="E1"/>
-      <c s="27" r="F1"/>
-      <c s="27" r="G1"/>
-      <c s="27" r="H1"/>
-      <c s="27" r="I1"/>
-      <c s="27" r="J1"/>
-    </row>
-    <row customHeight="1" s="27" customFormat="1" r="2" ht="15.0">
+      <c s="28" r="B1"/>
+      <c s="28" r="C1"/>
+      <c s="28" r="D1"/>
+      <c s="28" r="E1"/>
+      <c s="28" r="F1"/>
+      <c s="28" r="G1"/>
+      <c s="28" r="H1"/>
+      <c s="28" r="I1"/>
+      <c s="28" r="J1"/>
+    </row>
+    <row customHeight="1" s="28" customFormat="1" r="2" ht="15.0">
       <c s="1" r="A2"/>
-      <c s="27" r="B2"/>
-      <c s="27" r="C2"/>
-      <c s="27" r="D2"/>
-      <c s="27" r="E2"/>
-      <c s="27" r="F2"/>
-      <c s="27" r="G2"/>
-      <c s="27" r="H2"/>
-      <c s="27" r="I2"/>
-      <c s="27" r="J2"/>
-    </row>
-    <row customHeight="1" s="27" customFormat="1" r="3" ht="30.0">
-      <c t="s" s="28" r="A3">
+      <c s="28" r="B2"/>
+      <c s="28" r="C2"/>
+      <c s="28" r="D2"/>
+      <c s="28" r="E2"/>
+      <c s="28" r="F2"/>
+      <c s="28" r="G2"/>
+      <c s="28" r="H2"/>
+      <c s="28" r="I2"/>
+      <c s="28" r="J2"/>
+    </row>
+    <row customHeight="1" s="28" customFormat="1" r="3" ht="39.75">
+      <c t="s" s="27" r="A3">
         <v>1</v>
       </c>
-      <c s="14" r="B3"/>
-      <c s="14" r="C3"/>
-      <c s="14" r="D3"/>
-      <c s="14" r="E3"/>
-      <c s="14" r="F3"/>
-      <c s="14" r="G3"/>
-      <c s="14" r="H3"/>
-      <c s="14" r="I3"/>
-      <c s="14" r="J3"/>
+      <c s="12" r="B3"/>
+      <c s="12" r="C3"/>
+      <c s="12" r="D3"/>
+      <c s="12" r="E3"/>
+      <c s="12" r="F3"/>
+      <c s="12" r="G3"/>
+      <c s="12" r="H3"/>
+      <c s="12" r="I3"/>
+      <c s="12" r="J3"/>
     </row>
     <row customHeight="1" r="4" ht="12.0">
       <c s="3" r="A4"/>
@@ -1008,126 +1008,126 @@
       <c s="3" r="J4"/>
     </row>
     <row customHeight="1" r="5" ht="12.75">
-      <c t="s" s="8" r="A5">
+      <c t="s" s="7" r="A5">
         <v>2</v>
       </c>
-      <c s="23" r="B5"/>
-      <c s="23" r="C5"/>
-      <c s="23" r="D5"/>
-      <c s="23" r="E5"/>
-      <c s="23" r="F5"/>
-      <c s="23" r="G5"/>
-      <c s="23" r="H5"/>
-      <c s="23" r="I5"/>
+      <c s="22" r="B5"/>
+      <c s="22" r="C5"/>
+      <c s="22" r="D5"/>
+      <c s="22" r="E5"/>
+      <c s="22" r="F5"/>
+      <c s="22" r="G5"/>
+      <c s="22" r="H5"/>
+      <c s="22" r="I5"/>
       <c s="25" r="J5"/>
     </row>
     <row customHeight="1" r="6" ht="28.5">
       <c s="26" r="A6"/>
-      <c s="23" r="B6"/>
-      <c s="23" r="C6"/>
-      <c s="23" r="D6"/>
-      <c s="23" r="E6"/>
-      <c s="23" r="F6"/>
-      <c s="23" r="G6"/>
-      <c s="23" r="H6"/>
-      <c s="23" r="I6"/>
+      <c s="22" r="B6"/>
+      <c s="22" r="C6"/>
+      <c s="22" r="D6"/>
+      <c s="22" r="E6"/>
+      <c s="22" r="F6"/>
+      <c s="22" r="G6"/>
+      <c s="22" r="H6"/>
+      <c s="22" r="I6"/>
       <c s="25" r="J6"/>
     </row>
     <row customHeight="1" r="7" ht="12.0">
-      <c s="23" r="A7"/>
-      <c s="23" r="B7"/>
-      <c s="23" r="C7"/>
-      <c s="23" r="D7"/>
-      <c s="23" r="E7"/>
-      <c s="23" r="F7"/>
-      <c s="23" r="G7"/>
-      <c s="23" r="H7"/>
-      <c s="23" r="I7"/>
-      <c s="23" r="J7"/>
+      <c s="22" r="A7"/>
+      <c s="22" r="B7"/>
+      <c s="22" r="C7"/>
+      <c s="22" r="D7"/>
+      <c s="22" r="E7"/>
+      <c s="22" r="F7"/>
+      <c s="22" r="G7"/>
+      <c s="22" r="H7"/>
+      <c s="22" r="I7"/>
+      <c s="22" r="J7"/>
     </row>
     <row customHeight="1" r="8" ht="12.75">
-      <c t="s" s="8" r="A8">
+      <c t="s" s="7" r="A8">
         <v>3</v>
       </c>
-      <c s="23" r="B8"/>
-      <c s="23" r="C8"/>
-      <c s="23" r="D8"/>
-      <c s="23" r="E8"/>
-      <c s="23" r="F8"/>
-      <c s="23" r="G8"/>
-      <c s="23" r="H8"/>
-      <c s="23" r="I8"/>
+      <c s="22" r="B8"/>
+      <c s="22" r="C8"/>
+      <c s="22" r="D8"/>
+      <c s="22" r="E8"/>
+      <c s="22" r="F8"/>
+      <c s="22" r="G8"/>
+      <c s="22" r="H8"/>
+      <c s="22" r="I8"/>
       <c s="25" r="J8"/>
     </row>
     <row customHeight="1" r="9" ht="28.5">
-      <c s="34" r="A9"/>
-      <c s="23" r="B9"/>
-      <c s="23" r="C9"/>
-      <c s="23" r="D9"/>
-      <c s="23" r="E9"/>
-      <c s="23" r="F9"/>
-      <c s="23" r="G9"/>
-      <c s="23" r="H9"/>
-      <c s="23" r="I9"/>
+      <c s="30" r="A9"/>
+      <c s="22" r="B9"/>
+      <c s="22" r="C9"/>
+      <c s="22" r="D9"/>
+      <c s="22" r="E9"/>
+      <c s="22" r="F9"/>
+      <c s="22" r="G9"/>
+      <c s="22" r="H9"/>
+      <c s="22" r="I9"/>
       <c s="25" r="J9"/>
     </row>
     <row customHeight="1" r="10" ht="12.0">
-      <c s="23" r="A10"/>
-      <c s="23" r="B10"/>
-      <c s="23" r="C10"/>
-      <c s="23" r="D10"/>
-      <c s="23" r="E10"/>
-      <c s="23" r="F10"/>
-      <c s="23" r="G10"/>
-      <c s="23" r="H10"/>
-      <c s="23" r="I10"/>
-      <c s="23" r="J10"/>
+      <c s="22" r="A10"/>
+      <c s="22" r="B10"/>
+      <c s="22" r="C10"/>
+      <c s="22" r="D10"/>
+      <c s="22" r="E10"/>
+      <c s="22" r="F10"/>
+      <c s="22" r="G10"/>
+      <c s="22" r="H10"/>
+      <c s="22" r="I10"/>
+      <c s="22" r="J10"/>
     </row>
     <row customHeight="1" r="11" ht="12.75">
-      <c t="s" s="12" r="A11">
+      <c t="s" s="20" r="A11">
         <v>4</v>
       </c>
-      <c s="13" r="B11"/>
-      <c s="13" r="C11"/>
-      <c s="13" r="D11"/>
-      <c s="13" r="E11"/>
-      <c s="13" r="F11"/>
-      <c s="13" r="G11"/>
-      <c s="13" r="H11"/>
-      <c s="13" r="I11"/>
-      <c s="6" r="J11"/>
+      <c s="11" r="B11"/>
+      <c s="11" r="C11"/>
+      <c s="11" r="D11"/>
+      <c s="11" r="E11"/>
+      <c s="11" r="F11"/>
+      <c s="11" r="G11"/>
+      <c s="11" r="H11"/>
+      <c s="11" r="I11"/>
+      <c s="35" r="J11"/>
     </row>
     <row customHeight="1" r="12" ht="28.5">
-      <c s="16" r="A12">
+      <c s="13" r="A12">
         <v>1</v>
       </c>
-      <c s="27" r="B12"/>
-      <c s="15" r="C12"/>
+      <c s="28" r="B12"/>
+      <c s="5" r="C12"/>
       <c s="3" r="D12"/>
       <c s="3" r="E12"/>
       <c s="3" r="F12"/>
       <c s="3" r="G12"/>
       <c s="3" r="H12"/>
       <c s="3" r="I12"/>
-      <c s="29" r="J12"/>
+      <c s="6" r="J12"/>
     </row>
     <row customHeight="1" r="13" ht="28.5">
-      <c s="16" r="A13">
+      <c s="13" r="A13">
         <v>2</v>
       </c>
-      <c s="27" r="B13"/>
-      <c s="30" r="C13"/>
-      <c s="23" r="D13"/>
-      <c s="23" r="E13"/>
-      <c s="23" r="F13"/>
-      <c s="23" r="G13"/>
-      <c s="23" r="H13"/>
-      <c s="23" r="I13"/>
+      <c s="28" r="B13"/>
+      <c s="38" r="C13"/>
+      <c s="22" r="D13"/>
+      <c s="22" r="E13"/>
+      <c s="22" r="F13"/>
+      <c s="22" r="G13"/>
+      <c s="22" r="H13"/>
+      <c s="22" r="I13"/>
       <c s="25" r="J13"/>
     </row>
     <row customHeight="1" r="14" ht="12.75">
       <c s="24" r="A14"/>
-      <c s="19" r="B14"/>
+      <c s="17" r="B14"/>
       <c s="32" r="C14"/>
       <c s="32" r="D14"/>
       <c s="32" r="E14"/>
@@ -1135,21 +1135,21 @@
       <c s="32" r="G14"/>
       <c s="32" r="H14"/>
       <c s="32" r="I14"/>
-      <c s="35" r="J14"/>
-    </row>
-    <row customHeight="1" r="15" ht="39.75">
-      <c t="s" s="11" r="A15">
+      <c s="34" r="J14"/>
+    </row>
+    <row customHeight="1" r="15" ht="30.0">
+      <c t="s" s="10" r="A15">
         <v>5</v>
       </c>
-      <c s="11" r="B15"/>
-      <c s="11" r="C15"/>
-      <c s="11" r="D15"/>
-      <c s="11" r="E15"/>
-      <c s="11" r="F15"/>
-      <c s="11" r="G15"/>
-      <c s="11" r="H15"/>
-      <c s="11" r="I15"/>
-      <c s="11" r="J15"/>
+      <c s="10" r="B15"/>
+      <c s="10" r="C15"/>
+      <c s="10" r="D15"/>
+      <c s="10" r="E15"/>
+      <c s="10" r="F15"/>
+      <c s="10" r="G15"/>
+      <c s="10" r="H15"/>
+      <c s="10" r="I15"/>
+      <c s="10" r="J15"/>
     </row>
     <row customHeight="1" r="16" ht="7.5">
       <c s="3" r="A16"/>
@@ -1164,21 +1164,21 @@
       <c s="3" r="J16"/>
     </row>
     <row customHeight="1" r="17" ht="22.5">
-      <c t="s" s="7" r="A17">
+      <c t="s" s="15" r="A17">
         <v>6</v>
       </c>
-      <c s="38" r="B17"/>
-      <c s="38" r="C17"/>
-      <c s="38" r="D17"/>
-      <c s="38" r="E17"/>
-      <c s="38" r="F17"/>
-      <c s="38" r="G17"/>
-      <c s="38" r="H17"/>
-      <c s="38" r="I17"/>
-      <c s="37" r="J17"/>
+      <c s="37" r="B17"/>
+      <c s="37" r="C17"/>
+      <c s="37" r="D17"/>
+      <c s="37" r="E17"/>
+      <c s="37" r="F17"/>
+      <c s="37" r="G17"/>
+      <c s="37" r="H17"/>
+      <c s="37" r="I17"/>
+      <c s="36" r="J17"/>
     </row>
     <row customHeight="1" r="18" ht="180.0">
-      <c s="10" r="A18"/>
+      <c s="9" r="A18"/>
       <c s="2" r="B18"/>
       <c s="2" r="C18"/>
       <c s="2" r="D18"/>
@@ -1187,36 +1187,36 @@
       <c s="2" r="G18"/>
       <c s="2" r="H18"/>
       <c s="2" r="I18"/>
-      <c s="9" r="J18"/>
+      <c s="8" r="J18"/>
     </row>
     <row customHeight="1" r="19" ht="15.0">
-      <c s="23" r="A19"/>
-      <c s="23" r="B19"/>
-      <c s="23" r="C19"/>
-      <c s="23" r="D19"/>
-      <c s="23" r="E19"/>
-      <c s="23" r="F19"/>
-      <c s="23" r="G19"/>
-      <c s="23" r="H19"/>
-      <c s="23" r="I19"/>
-      <c s="23" r="J19"/>
-    </row>
-    <row customHeight="1" s="21" customFormat="1" r="20" ht="22.5">
-      <c t="s" s="36" r="A20">
+      <c s="22" r="A19"/>
+      <c s="22" r="B19"/>
+      <c s="22" r="C19"/>
+      <c s="22" r="D19"/>
+      <c s="22" r="E19"/>
+      <c s="22" r="F19"/>
+      <c s="22" r="G19"/>
+      <c s="22" r="H19"/>
+      <c s="22" r="I19"/>
+      <c s="22" r="J19"/>
+    </row>
+    <row customHeight="1" s="19" customFormat="1" r="20" ht="22.5">
+      <c t="s" s="23" r="A20">
         <v>7</v>
       </c>
-      <c s="38" r="B20"/>
-      <c s="38" r="C20"/>
-      <c s="38" r="D20"/>
-      <c s="38" r="E20"/>
-      <c s="38" r="F20"/>
-      <c s="38" r="G20"/>
-      <c s="38" r="H20"/>
-      <c s="38" r="I20"/>
-      <c s="37" r="J20"/>
+      <c s="37" r="B20"/>
+      <c s="37" r="C20"/>
+      <c s="37" r="D20"/>
+      <c s="37" r="E20"/>
+      <c s="37" r="F20"/>
+      <c s="37" r="G20"/>
+      <c s="37" r="H20"/>
+      <c s="37" r="I20"/>
+      <c s="36" r="J20"/>
     </row>
     <row customHeight="1" r="21" ht="180.0">
-      <c s="10" r="A21"/>
+      <c s="9" r="A21"/>
       <c s="2" r="B21"/>
       <c s="2" r="C21"/>
       <c s="2" r="D21"/>
@@ -1225,159 +1225,159 @@
       <c s="2" r="G21"/>
       <c s="2" r="H21"/>
       <c s="2" r="I21"/>
-      <c s="9" r="J21"/>
+      <c s="8" r="J21"/>
     </row>
     <row customHeight="1" r="22" ht="22.5">
-      <c s="23" r="A22"/>
-      <c s="23" r="B22"/>
-      <c s="23" r="C22"/>
-      <c s="23" r="D22"/>
-      <c s="23" r="E22"/>
-      <c s="23" r="F22"/>
-      <c s="23" r="G22"/>
-      <c s="23" r="H22"/>
-      <c s="23" r="I22"/>
-      <c s="23" r="J22"/>
+      <c s="22" r="A22"/>
+      <c s="22" r="B22"/>
+      <c s="22" r="C22"/>
+      <c s="22" r="D22"/>
+      <c s="22" r="E22"/>
+      <c s="22" r="F22"/>
+      <c s="22" r="G22"/>
+      <c s="22" r="H22"/>
+      <c s="22" r="I22"/>
+      <c s="22" r="J22"/>
     </row>
     <row customHeight="1" r="23" ht="12.75">
       <c t="s" s="33" r="A23">
         <v>8</v>
       </c>
-      <c s="23" r="B23"/>
-      <c s="23" r="C23"/>
-      <c s="23" r="D23"/>
-      <c s="23" r="E23"/>
-      <c s="23" r="F23"/>
-      <c s="23" r="G23"/>
-      <c s="23" r="H23"/>
-      <c s="23" r="I23"/>
+      <c s="22" r="B23"/>
+      <c s="22" r="C23"/>
+      <c s="22" r="D23"/>
+      <c s="22" r="E23"/>
+      <c s="22" r="F23"/>
+      <c s="22" r="G23"/>
+      <c s="22" r="H23"/>
+      <c s="22" r="I23"/>
       <c s="25" r="J23"/>
     </row>
     <row customHeight="1" r="24" ht="12.75">
-      <c t="s" s="18" r="A24">
+      <c t="s" s="16" r="A24">
         <v>9</v>
       </c>
-      <c s="13" r="B24"/>
-      <c s="13" r="C24"/>
-      <c s="13" r="D24"/>
-      <c s="13" r="E24"/>
-      <c s="13" r="F24"/>
-      <c s="13" r="G24"/>
-      <c s="13" r="H24"/>
-      <c s="13" r="I24"/>
-      <c s="22" r="J24"/>
+      <c s="11" r="B24"/>
+      <c s="11" r="C24"/>
+      <c s="11" r="D24"/>
+      <c s="11" r="E24"/>
+      <c s="11" r="F24"/>
+      <c s="11" r="G24"/>
+      <c s="11" r="H24"/>
+      <c s="11" r="I24"/>
+      <c s="21" r="J24"/>
     </row>
     <row customHeight="1" r="25" ht="3.75">
-      <c s="16" r="A25"/>
-      <c s="27" r="B25"/>
-      <c s="27" r="C25"/>
-      <c s="27" r="D25"/>
-      <c s="27" r="E25"/>
-      <c s="27" r="F25"/>
-      <c s="27" r="G25"/>
-      <c s="27" r="H25"/>
-      <c s="27" r="I25"/>
+      <c s="13" r="A25"/>
+      <c s="28" r="B25"/>
+      <c s="28" r="C25"/>
+      <c s="28" r="D25"/>
+      <c s="28" r="E25"/>
+      <c s="28" r="F25"/>
+      <c s="28" r="G25"/>
+      <c s="28" r="H25"/>
+      <c s="28" r="I25"/>
       <c s="4" r="J25"/>
     </row>
     <row customHeight="1" r="26" ht="12.75">
-      <c s="16" r="A26"/>
-      <c s="27" r="B26"/>
-      <c s="17" r="C26">
+      <c s="13" r="A26"/>
+      <c s="28" r="B26"/>
+      <c s="14" r="C26">
         <v>1</v>
       </c>
-      <c s="17" r="D26">
+      <c s="14" r="D26">
         <v>2</v>
       </c>
-      <c s="17" r="E26">
+      <c s="14" r="E26">
         <v>3</v>
       </c>
-      <c s="17" r="F26">
+      <c s="14" r="F26">
         <v>4</v>
       </c>
-      <c s="17" r="G26">
+      <c s="14" r="G26">
         <v>5</v>
       </c>
-      <c s="27" r="H26"/>
-      <c s="27" r="I26"/>
+      <c s="28" r="H26"/>
+      <c s="28" r="I26"/>
       <c s="4" r="J26"/>
     </row>
     <row customHeight="1" r="27" ht="3.75">
       <c s="24" r="A27"/>
-      <c s="19" r="B27"/>
-      <c s="19" r="C27"/>
-      <c s="19" r="D27"/>
-      <c s="19" r="E27"/>
-      <c s="19" r="F27"/>
-      <c s="19" r="G27"/>
-      <c s="19" r="H27"/>
-      <c s="19" r="I27"/>
+      <c s="17" r="B27"/>
+      <c s="17" r="C27"/>
+      <c s="17" r="D27"/>
+      <c s="17" r="E27"/>
+      <c s="17" r="F27"/>
+      <c s="17" r="G27"/>
+      <c s="17" r="H27"/>
+      <c s="17" r="I27"/>
       <c s="31" r="J27"/>
     </row>
     <row customHeight="1" r="28" ht="10.5">
-      <c s="23" r="A28"/>
-      <c s="23" r="B28"/>
-      <c s="23" r="C28"/>
-      <c s="23" r="D28"/>
-      <c s="23" r="E28"/>
-      <c s="23" r="F28"/>
-      <c s="23" r="G28"/>
-      <c s="23" r="H28"/>
-      <c s="23" r="I28"/>
-      <c s="23" r="J28"/>
+      <c s="22" r="A28"/>
+      <c s="22" r="B28"/>
+      <c s="22" r="C28"/>
+      <c s="22" r="D28"/>
+      <c s="22" r="E28"/>
+      <c s="22" r="F28"/>
+      <c s="22" r="G28"/>
+      <c s="22" r="H28"/>
+      <c s="22" r="I28"/>
+      <c s="22" r="J28"/>
     </row>
     <row customHeight="1" r="29" ht="12.75">
       <c t="s" s="33" r="A29">
         <v>10</v>
       </c>
-      <c s="23" r="B29"/>
-      <c s="23" r="C29"/>
-      <c s="23" r="D29"/>
-      <c s="23" r="E29"/>
-      <c s="23" r="F29"/>
-      <c s="23" r="G29"/>
-      <c s="23" r="H29"/>
-      <c s="23" r="I29"/>
+      <c s="22" r="B29"/>
+      <c s="22" r="C29"/>
+      <c s="22" r="D29"/>
+      <c s="22" r="E29"/>
+      <c s="22" r="F29"/>
+      <c s="22" r="G29"/>
+      <c s="22" r="H29"/>
+      <c s="22" r="I29"/>
       <c s="25" r="J29"/>
     </row>
     <row customHeight="1" r="30" ht="12.75">
-      <c t="s" s="18" r="A30">
+      <c t="s" s="16" r="A30">
         <v>11</v>
       </c>
-      <c s="13" r="B30"/>
-      <c s="13" r="C30"/>
-      <c s="13" r="D30"/>
-      <c s="13" r="E30"/>
-      <c s="13" r="F30"/>
-      <c s="13" r="G30"/>
-      <c s="13" r="H30"/>
-      <c s="13" r="I30"/>
-      <c s="22" r="J30"/>
+      <c s="11" r="B30"/>
+      <c s="11" r="C30"/>
+      <c s="11" r="D30"/>
+      <c s="11" r="E30"/>
+      <c s="11" r="F30"/>
+      <c s="11" r="G30"/>
+      <c s="11" r="H30"/>
+      <c s="11" r="I30"/>
+      <c s="21" r="J30"/>
     </row>
     <row customHeight="1" r="31" ht="3.75">
-      <c s="16" r="A31"/>
-      <c s="27" r="B31"/>
-      <c s="27" r="C31"/>
-      <c s="27" r="D31"/>
-      <c s="27" r="E31"/>
-      <c s="27" r="F31"/>
-      <c s="27" r="G31"/>
-      <c s="27" r="H31"/>
-      <c s="27" r="I31"/>
+      <c s="13" r="A31"/>
+      <c s="28" r="B31"/>
+      <c s="28" r="C31"/>
+      <c s="28" r="D31"/>
+      <c s="28" r="E31"/>
+      <c s="28" r="F31"/>
+      <c s="28" r="G31"/>
+      <c s="28" r="H31"/>
+      <c s="28" r="I31"/>
       <c s="4" r="J31"/>
     </row>
     <row customHeight="1" r="32" ht="12.75">
-      <c s="16" r="A32"/>
-      <c s="27" r="B32"/>
-      <c s="19" r="C32"/>
-      <c t="s" s="20" r="D32">
+      <c s="13" r="A32"/>
+      <c s="28" r="B32"/>
+      <c s="17" r="C32"/>
+      <c t="s" s="18" r="D32">
         <v>12</v>
       </c>
-      <c s="20" r="E32"/>
-      <c s="19" r="F32"/>
-      <c t="s" s="20" r="G32">
+      <c s="18" r="E32"/>
+      <c s="17" r="F32"/>
+      <c t="s" s="18" r="G32">
         <v>13</v>
       </c>
-      <c s="20" r="H32"/>
+      <c s="18" r="H32"/>
       <c s="3" r="I32"/>
       <c t="s" s="4" r="J32">
         <v>14</v>
@@ -1385,44 +1385,44 @@
     </row>
     <row customHeight="1" r="33" ht="3.75">
       <c s="24" r="A33"/>
-      <c s="19" r="B33"/>
+      <c s="17" r="B33"/>
       <c s="32" r="C33"/>
-      <c s="19" r="D33"/>
-      <c s="19" r="E33"/>
+      <c s="17" r="D33"/>
+      <c s="17" r="E33"/>
       <c s="32" r="F33"/>
-      <c s="19" r="G33"/>
-      <c s="19" r="H33"/>
+      <c s="17" r="G33"/>
+      <c s="17" r="H33"/>
       <c s="32" r="I33"/>
       <c s="31" r="J33"/>
     </row>
     <row customHeight="1" r="34" ht="10.5">
-      <c s="23" r="A34"/>
-      <c s="23" r="B34"/>
-      <c s="23" r="C34"/>
-      <c s="23" r="D34"/>
-      <c s="23" r="E34"/>
-      <c s="23" r="F34"/>
-      <c s="23" r="G34"/>
-      <c s="23" r="H34"/>
-      <c s="23" r="I34"/>
-      <c s="23" r="J34"/>
+      <c s="22" r="A34"/>
+      <c s="22" r="B34"/>
+      <c s="22" r="C34"/>
+      <c s="22" r="D34"/>
+      <c s="22" r="E34"/>
+      <c s="22" r="F34"/>
+      <c s="22" r="G34"/>
+      <c s="22" r="H34"/>
+      <c s="22" r="I34"/>
+      <c s="22" r="J34"/>
     </row>
     <row customHeight="1" r="35" ht="29.25">
-      <c t="s" s="5" r="A35">
+      <c t="s" s="29" r="A35">
         <v>15</v>
       </c>
-      <c s="23" r="B35"/>
-      <c s="23" r="C35"/>
-      <c s="23" r="D35"/>
-      <c s="23" r="E35"/>
-      <c s="23" r="F35"/>
-      <c s="23" r="G35"/>
-      <c s="23" r="H35"/>
-      <c s="23" r="I35"/>
+      <c s="22" r="B35"/>
+      <c s="22" r="C35"/>
+      <c s="22" r="D35"/>
+      <c s="22" r="E35"/>
+      <c s="22" r="F35"/>
+      <c s="22" r="G35"/>
+      <c s="22" r="H35"/>
+      <c s="22" r="I35"/>
       <c s="25" r="J35"/>
     </row>
     <row customHeight="1" r="36" ht="189.75">
-      <c s="10" r="A36"/>
+      <c s="9" r="A36"/>
       <c s="2" r="B36"/>
       <c s="2" r="C36"/>
       <c s="2" r="D36"/>
@@ -1431,10 +1431,10 @@
       <c s="2" r="G36"/>
       <c s="2" r="H36"/>
       <c s="2" r="I36"/>
-      <c s="9" r="J36"/>
+      <c s="8" r="J36"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A5:J5"/>
@@ -1450,7 +1450,9 @@
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="A35:J35"/>
